--- a/notebooks/AnalysisPatientBased/PatientBased.xlsx
+++ b/notebooks/AnalysisPatientBased/PatientBased.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingrenshen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingrenshen/Projects/MedicalImgAnalysis/notebooks/AnalysisPatientBased/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC7A25E-9FF1-654F-BF5B-9C1C15D1D59C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5962A9-FAE2-0F4B-9B28-6E617D2920A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="26400" windowHeight="16040" xr2:uid="{FE28832B-D3D9-D34A-B2E2-E027F455A3B6}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="26400" windowHeight="16040" xr2:uid="{FE28832B-D3D9-D34A-B2E2-E027F455A3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,10 +219,10 @@
     <t>Sequence 5</t>
   </si>
   <si>
-    <t>All 4/19</t>
-  </si>
-  <si>
     <t>All 16/19</t>
+  </si>
+  <si>
+    <t>All 5/19</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1394,10 +1394,10 @@
     </row>
     <row r="24" spans="1:13" ht="37">
       <c r="C24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
